--- a/Excel-XLSX/UN-MHL.xlsx
+++ b/Excel-XLSX/UN-MHL.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>i7Rd2t</t>
+    <t>lyNbm4</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-MHL.xlsx
+++ b/Excel-XLSX/UN-MHL.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>lyNbm4</t>
+    <t>5BM52f</t>
   </si>
   <si>
     <t>0</t>

--- a/Excel-XLSX/UN-MHL.xlsx
+++ b/Excel-XLSX/UN-MHL.xlsx
@@ -30,7 +30,7 @@
     <t>1</t>
   </si>
   <si>
-    <t>5BM52f</t>
+    <t>3V6YcT</t>
   </si>
   <si>
     <t>0</t>
